--- a/qs_reports/combined_metrics_28.xlsx
+++ b/qs_reports/combined_metrics_28.xlsx
@@ -534,34 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +571,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.052999999999999</v>
+        <v>955.3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.370299999999999</v>
+        <v>740.01</v>
       </c>
       <c r="D4" t="n">
-        <v>5.7525</v>
+        <v>575.23</v>
       </c>
       <c r="E4" t="n">
-        <v>7.370299999999999</v>
+        <v>740.01</v>
       </c>
       <c r="F4" t="n">
-        <v>8.264800000000001</v>
+        <v>831.4299999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>7.370299999999999</v>
+        <v>740.01</v>
       </c>
       <c r="H4" t="n">
-        <v>9.6654</v>
+        <v>1047.8</v>
       </c>
       <c r="I4" t="n">
-        <v>7.0888</v>
+        <v>711.76</v>
       </c>
       <c r="J4" t="n">
-        <v>7.370299999999999</v>
+        <v>740.01</v>
       </c>
       <c r="K4" t="n">
-        <v>7.9421</v>
+        <v>798.98</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +608,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0722</v>
+        <v>7.7</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06950000000000001</v>
+        <v>6.93</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0623</v>
+        <v>6.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06950000000000001</v>
+        <v>6.93</v>
       </c>
       <c r="F5" t="n">
-        <v>0.073</v>
+        <v>7.28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06950000000000001</v>
+        <v>6.93</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07780000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0684</v>
+        <v>6.81</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0697</v>
+        <v>6.95</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07200000000000001</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="6">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="C6" t="n">
         <v>0.88</v>
@@ -663,7 +663,7 @@
         <v>0.88</v>
       </c>
       <c r="H6" t="n">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="I6" t="n">
         <v>0.87</v>
@@ -682,34 +682,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.95</v>
+        <v>1.08</v>
       </c>
       <c r="C8" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="D8" t="n">
         <v>0.99</v>
@@ -737,10 +737,10 @@
         <v>0.85</v>
       </c>
       <c r="H8" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="I8" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="J8" t="n">
         <v>0.86</v>
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.64</v>
+        <v>1.94</v>
       </c>
       <c r="C9" t="n">
         <v>1.43</v>
       </c>
       <c r="D9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="E9" t="n">
         <v>1.43</v>
@@ -774,7 +774,7 @@
         <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="I9" t="n">
         <v>1.4</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
       <c r="C10" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="D10" t="n">
         <v>1.67</v>
@@ -811,10 +811,10 @@
         <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="I10" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="J10" t="n">
         <v>1.39</v>
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="C11" t="n">
         <v>1.01</v>
       </c>
       <c r="D11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="E11" t="n">
         <v>1.01</v>
@@ -848,7 +848,7 @@
         <v>1.01</v>
       </c>
       <c r="H11" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="I11" t="n">
         <v>0.99</v>
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="C12" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="D12" t="n">
         <v>1.18</v>
@@ -882,16 +882,16 @@
         <v>0.91</v>
       </c>
       <c r="G12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.98</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.99</v>
       </c>
       <c r="K12" t="n">
         <v>0.91</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.17</v>
+        <v>2.51</v>
       </c>
       <c r="C13" t="n">
-        <v>2.17</v>
+        <v>2.51</v>
       </c>
       <c r="D13" t="n">
         <v>2.07</v>
@@ -916,16 +916,16 @@
         <v>2.07</v>
       </c>
       <c r="F13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="J13" t="n">
         <v>1.91</v>
@@ -941,34 +941,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2484</v>
+        <v>-23.29</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2557</v>
+        <v>-25.57</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1551</v>
+        <v>-15.51</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2557</v>
+        <v>-25.57</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.303</v>
+        <v>-30.3</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2557</v>
+        <v>-25.57</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2846</v>
+        <v>-29.12</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2557</v>
+        <v>-25.57</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.2557</v>
+        <v>-25.57</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.303</v>
+        <v>-30.3</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>762</v>
+        <v>670</v>
       </c>
       <c r="C15" t="n">
         <v>1887</v>
@@ -996,7 +996,7 @@
         <v>1887</v>
       </c>
       <c r="H15" t="n">
-        <v>1126</v>
+        <v>700</v>
       </c>
       <c r="I15" t="n">
         <v>1887</v>
@@ -1015,34 +1015,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07190000000000001</v>
+        <v>6.41</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0799</v>
+        <v>7.97</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06269999999999999</v>
+        <v>6.26</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0799</v>
+        <v>7.97</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08900000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0799</v>
+        <v>7.97</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0799</v>
+        <v>7.47</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07969999999999999</v>
+        <v>7.95</v>
       </c>
       <c r="J16" t="n">
-        <v>0.08</v>
+        <v>7.98</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08900000000000001</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="C17" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="D17" t="n">
         <v>0.97</v>
@@ -1070,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="I17" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="J17" t="n">
         <v>0.99</v>
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D18" t="n">
         <v>-0.11</v>
@@ -1107,10 +1107,10 @@
         <v>0.11</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J18" t="n">
         <v>-0.07000000000000001</v>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="C19" t="n">
         <v>0.27</v>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.6</v>
+        <v>-0.82</v>
       </c>
       <c r="C20" t="n">
         <v>-0.36</v>
@@ -1181,7 +1181,7 @@
         <v>-0.36</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.76</v>
+        <v>-0.75</v>
       </c>
       <c r="I20" t="n">
         <v>-0.35</v>
@@ -1200,34 +1200,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.99</v>
+        <v>4.63</v>
       </c>
       <c r="C21" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.38</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.37</v>
-      </c>
       <c r="K21" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="22">
@@ -1237,34 +1237,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0058</v>
+        <v>0.62</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0059</v>
+        <v>0.59</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0062</v>
+        <v>0.64</v>
       </c>
       <c r="I22" t="n">
-        <v>0.005500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0058</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="23">
@@ -1274,34 +1274,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0058</v>
+        <v>0.62</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005</v>
+        <v>0.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0059</v>
+        <v>0.59</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0062</v>
+        <v>0.64</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005600000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0058</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="24">
@@ -1311,34 +1311,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0713</v>
+        <v>7.64</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0687</v>
+        <v>6.88</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06150000000000001</v>
+        <v>6.15</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0687</v>
+        <v>6.88</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07200000000000001</v>
+        <v>7.22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0687</v>
+        <v>6.88</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07679999999999999</v>
+        <v>7.92</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0675</v>
+        <v>6.76</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0687</v>
+        <v>6.88</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0709</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="25">
@@ -1348,34 +1348,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.334</v>
+        <v>39.82</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2697</v>
+        <v>26.44</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3475</v>
+        <v>34.62</v>
       </c>
       <c r="E25" t="n">
-        <v>0.287</v>
+        <v>28.68</v>
       </c>
       <c r="F25" t="n">
-        <v>0.286</v>
+        <v>28.59</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3077</v>
+        <v>30.73</v>
       </c>
       <c r="H25" t="n">
-        <v>0.311</v>
+        <v>35.71</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2743</v>
+        <v>26.36</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3066</v>
+        <v>30.61</v>
       </c>
       <c r="K25" t="n">
-        <v>0.283</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="26">
@@ -1422,34 +1422,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.0281</v>
+        <v>-2.41</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0246</v>
+        <v>-2.46</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0361</v>
+        <v>-3.6</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0314</v>
+        <v>-2.88</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0361</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="28">
@@ -1459,34 +1459,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.0281</v>
+        <v>-2.41</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0246</v>
+        <v>-2.46</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0361</v>
+        <v>-3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0314</v>
+        <v>-2.88</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0321</v>
+        <v>-3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0361</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="29">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
         <v>14</v>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
         <v>6</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="C31" t="n">
         <v>0.91</v>
@@ -1582,13 +1582,13 @@
         <v>0.91</v>
       </c>
       <c r="F31" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="G31" t="n">
         <v>0.91</v>
       </c>
       <c r="H31" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="I31" t="n">
         <v>0.89</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="C32" t="n">
         <v>0.91</v>
@@ -1619,13 +1619,13 @@
         <v>0.91</v>
       </c>
       <c r="F32" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="G32" t="n">
         <v>0.91</v>
       </c>
       <c r="H32" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="I32" t="n">
         <v>0.89</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
       <c r="C33" t="n">
         <v>0.92</v>
@@ -1662,16 +1662,16 @@
         <v>1.03</v>
       </c>
       <c r="H33" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.17</v>
+        <v>2.51</v>
       </c>
       <c r="C34" t="n">
         <v>1.91</v>
@@ -1693,13 +1693,13 @@
         <v>1.91</v>
       </c>
       <c r="F34" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G34" t="n">
         <v>1.91</v>
       </c>
       <c r="H34" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="I34" t="n">
         <v>1.89</v>
@@ -1718,13 +1718,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.86</v>
+        <v>3.31</v>
       </c>
       <c r="C35" t="n">
         <v>2.16</v>
       </c>
       <c r="D35" t="n">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="E35" t="n">
         <v>2.16</v>
@@ -1736,7 +1736,7 @@
         <v>2.16</v>
       </c>
       <c r="H35" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="I35" t="n">
         <v>2.14</v>
@@ -1745,7 +1745,7 @@
         <v>2.16</v>
       </c>
       <c r="K35" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="36">
@@ -1755,28 +1755,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="C36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="D36" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="E36" t="n">
         <v>1.2</v>
       </c>
       <c r="F36" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G36" t="n">
         <v>1.27</v>
       </c>
       <c r="H36" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="I36" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="J36" t="n">
         <v>1.27</v>
@@ -1810,7 +1810,7 @@
         <v>1.13</v>
       </c>
       <c r="H37" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="I37" t="n">
         <v>1.13</v>
@@ -1819,7 +1819,7 @@
         <v>1.13</v>
       </c>
       <c r="K37" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="38">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="C38" t="n">
-        <v>2.73</v>
+        <v>2.67</v>
       </c>
       <c r="D38" t="n">
         <v>3.16</v>
@@ -1847,10 +1847,10 @@
         <v>2.97</v>
       </c>
       <c r="H38" t="n">
-        <v>2.8</v>
+        <v>3.11</v>
       </c>
       <c r="I38" t="n">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="J38" t="n">
         <v>2.96</v>
@@ -1866,34 +1866,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.24</v>
+        <v>3.44</v>
       </c>
       <c r="C39" t="n">
-        <v>2.8</v>
+        <v>2.59</v>
       </c>
       <c r="D39" t="n">
         <v>3.19</v>
       </c>
       <c r="E39" t="n">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="F39" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="G39" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="H39" t="n">
-        <v>3.47</v>
+        <v>3.77</v>
       </c>
       <c r="I39" t="n">
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="J39" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="K39" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="40">
@@ -1903,34 +1903,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.0001</v>
+        <v>-0.79</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0058</v>
+        <v>-0.57</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0063</v>
+        <v>-0.91</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0058</v>
+        <v>-0.57</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005600000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0058</v>
+        <v>-0.57</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0003</v>
+        <v>-0.82</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0058</v>
+        <v>-0.57</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0058</v>
+        <v>-0.57</v>
       </c>
       <c r="K40" t="n">
-        <v>0.005600000000000001</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="41">
@@ -1940,34 +1940,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0239</v>
+        <v>1.85</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0621</v>
+        <v>2.31</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05769999999999999</v>
+        <v>2.11</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0621</v>
+        <v>2.31</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0643</v>
+        <v>2.41</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0621</v>
+        <v>2.31</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0211</v>
+        <v>1.31</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0621</v>
+        <v>2.31</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0621</v>
+        <v>2.31</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0643</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="42">
@@ -1977,34 +1977,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.06509999999999999</v>
+        <v>3.52</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08019999999999999</v>
+        <v>4.01</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0646</v>
+        <v>3.29</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08019999999999999</v>
+        <v>4.01</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08800000000000001</v>
+        <v>4.37</v>
       </c>
       <c r="G42" t="n">
-        <v>0.08019999999999999</v>
+        <v>4.01</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0601</v>
+        <v>2.77</v>
       </c>
       <c r="I42" t="n">
-        <v>0.08019999999999999</v>
+        <v>4.01</v>
       </c>
       <c r="J42" t="n">
-        <v>0.08019999999999999</v>
+        <v>4.01</v>
       </c>
       <c r="K42" t="n">
-        <v>0.08800000000000001</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="43">
@@ -2014,34 +2014,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0572</v>
+        <v>6.83</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0951</v>
+        <v>9.9</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0736</v>
+        <v>7.35</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0951</v>
+        <v>9.9</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1058</v>
+        <v>11.17</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0951</v>
+        <v>9.9</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0553</v>
+        <v>6.38</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0951</v>
+        <v>9.9</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0951</v>
+        <v>9.9</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1058</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="44">
@@ -2051,34 +2051,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.07530000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1344</v>
+        <v>16.85</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1117</v>
+        <v>14.04</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1344</v>
+        <v>16.85</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1458</v>
+        <v>18.26</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1344</v>
+        <v>16.85</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0741</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1344</v>
+        <v>16.85</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1344</v>
+        <v>16.85</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1458</v>
+        <v>18.26</v>
       </c>
     </row>
     <row r="45">
@@ -2088,34 +2088,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0262</v>
+        <v>3.16</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0315</v>
+        <v>2.91</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0118</v>
+        <v>1.08</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0315</v>
+        <v>2.91</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0413</v>
+        <v>3.82</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0315</v>
+        <v>2.91</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0375</v>
+        <v>4.85</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0315</v>
+        <v>2.91</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0315</v>
+        <v>2.91</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0413</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="46">
@@ -2125,34 +2125,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0532</v>
+        <v>5.69</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0599</v>
+        <v>5.86</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0377</v>
+        <v>3.71</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0599</v>
+        <v>5.86</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07099999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0599</v>
+        <v>5.86</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05769999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0599</v>
+        <v>5.86</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0599</v>
+        <v>5.86</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07099999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="47">
@@ -2162,34 +2162,34 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0612</v>
+        <v>6.31</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06759999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0508</v>
+        <v>4.79</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06759999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="F47" t="n">
-        <v>0.076</v>
+        <v>7.27</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06759999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0623</v>
+        <v>6.47</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06759999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="J47" t="n">
-        <v>0.06759999999999999</v>
+        <v>6.45</v>
       </c>
       <c r="K47" t="n">
-        <v>0.076</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="48">
@@ -2199,34 +2199,34 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0722</v>
+        <v>7.7</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06950000000000001</v>
+        <v>6.93</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0623</v>
+        <v>6.2</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06950000000000001</v>
+        <v>6.93</v>
       </c>
       <c r="F48" t="n">
-        <v>0.073</v>
+        <v>7.28</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06950000000000001</v>
+        <v>6.93</v>
       </c>
       <c r="H48" t="n">
-        <v>0.07780000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0684</v>
+        <v>6.81</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0697</v>
+        <v>6.95</v>
       </c>
       <c r="K48" t="n">
-        <v>0.07200000000000001</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="49">
@@ -2236,34 +2236,34 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0757</v>
+        <v>7.56</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0601</v>
+        <v>6.01</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0767</v>
+        <v>7.67</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09119999999999999</v>
+        <v>11.24</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0767</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="50">
@@ -2273,34 +2273,34 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.109</v>
+        <v>-10.82</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.04769999999999999</v>
+        <v>-4.77</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.0793</v>
+        <v>-7.93</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.1133</v>
+        <v>-11.93</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0793</v>
+        <v>-7.93</v>
       </c>
     </row>
     <row r="51">
@@ -2310,34 +2310,34 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0757</v>
+        <v>7.56</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0601</v>
+        <v>6.01</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0767</v>
+        <v>7.67</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="H51" t="n">
-        <v>0.09119999999999999</v>
+        <v>11.24</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0712</v>
+        <v>7.12</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0767</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="52">
@@ -2347,34 +2347,34 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.109</v>
+        <v>-10.82</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.04769999999999999</v>
+        <v>-4.77</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.0793</v>
+        <v>-7.93</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.1133</v>
+        <v>-11.93</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0688</v>
+        <v>-6.88</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0793</v>
+        <v>-7.93</v>
       </c>
     </row>
     <row r="53">
@@ -2384,34 +2384,34 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3258</v>
+        <v>32.46</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2317</v>
+        <v>23.17</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2068</v>
+        <v>20.68</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2317</v>
+        <v>23.17</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2497</v>
+        <v>24.97</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2317</v>
+        <v>23.17</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3675</v>
+        <v>42.81</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2317</v>
+        <v>23.17</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2317</v>
+        <v>23.17</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2497</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="54">
@@ -2421,34 +2421,34 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.2088</v>
+        <v>-18.29</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1659</v>
+        <v>-16.59</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1398</v>
+        <v>-13.98</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1659</v>
+        <v>-16.59</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.1988</v>
+        <v>-19.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1659</v>
+        <v>-16.59</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.2297</v>
+        <v>-23.75</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.1659</v>
+        <v>-16.59</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.1659</v>
+        <v>-16.59</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.1988</v>
+        <v>-19.88</v>
       </c>
     </row>
     <row r="55">
@@ -2458,34 +2458,34 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.03</v>
+        <v>-2.23</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.03700000000000001</v>
+        <v>-3.63</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0258</v>
+        <v>-2.55</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.03700000000000001</v>
+        <v>-3.63</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.042</v>
+        <v>-4.11</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03700000000000001</v>
+        <v>-3.63</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.0292</v>
+        <v>-2.46</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.03700000000000001</v>
+        <v>-3.63</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.03700000000000001</v>
+        <v>-3.63</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.042</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="56">
@@ -2495,34 +2495,34 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C56" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D56" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E56" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F56" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G56" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H56" t="n">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="I56" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J56" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K56" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57">
@@ -2532,34 +2532,34 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>32.42</v>
+        <v>41.02</v>
       </c>
       <c r="C57" t="n">
-        <v>28.83</v>
+        <v>28.95</v>
       </c>
       <c r="D57" t="n">
         <v>37.09</v>
       </c>
       <c r="E57" t="n">
-        <v>28.83</v>
+        <v>28.95</v>
       </c>
       <c r="F57" t="n">
-        <v>27.27</v>
+        <v>27.44</v>
       </c>
       <c r="G57" t="n">
-        <v>28.83</v>
+        <v>28.95</v>
       </c>
       <c r="H57" t="n">
-        <v>33.96</v>
+        <v>35.99</v>
       </c>
       <c r="I57" t="n">
-        <v>27.73</v>
+        <v>27.84</v>
       </c>
       <c r="J57" t="n">
-        <v>28.83</v>
+        <v>28.95</v>
       </c>
       <c r="K57" t="n">
-        <v>26.21</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="58">
@@ -2587,7 +2587,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
         <v>0.07000000000000001</v>
@@ -2606,34 +2606,34 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>48.01</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>16.1</v>
+        <v>16.21</v>
       </c>
       <c r="D59" t="n">
-        <v>24.58</v>
+        <v>24.66</v>
       </c>
       <c r="E59" t="n">
-        <v>16.1</v>
+        <v>16.21</v>
       </c>
       <c r="F59" t="n">
-        <v>13.77</v>
+        <v>13.89</v>
       </c>
       <c r="G59" t="n">
-        <v>16.1</v>
+        <v>16.21</v>
       </c>
       <c r="H59" t="n">
-        <v>46.2</v>
+        <v>58.78</v>
       </c>
       <c r="I59" t="n">
-        <v>15.45</v>
+        <v>15.56</v>
       </c>
       <c r="J59" t="n">
-        <v>16.08</v>
+        <v>16.19</v>
       </c>
       <c r="K59" t="n">
-        <v>13.19</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="60">
@@ -2643,34 +2643,34 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0176</v>
+        <v>1.61</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0198</v>
+        <v>1.95</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0158</v>
+        <v>1.57</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0194</v>
+        <v>1.94</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0214</v>
+        <v>2.13</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0195</v>
+        <v>1.94</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0198</v>
+        <v>1.81</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0203</v>
+        <v>1.97</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0194</v>
+        <v>1.93</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0213</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="61">
@@ -2680,34 +2680,34 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.0185</v>
+        <v>-1.57</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0214</v>
+        <v>-2.12</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0152</v>
+        <v>-1.51</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.02</v>
+        <v>-1.99</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.0215</v>
+        <v>-2.13</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0189</v>
+        <v>-1.88</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.02</v>
+        <v>-1.86</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.0215</v>
+        <v>-2.14</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.0189</v>
+        <v>-1.88</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0215</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="62">
@@ -2717,34 +2717,34 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6755</v>
+        <v>69.55</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6491</v>
+        <v>64.83</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6675</v>
+        <v>66.67</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6491</v>
+        <v>64.83</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6437999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6491</v>
+        <v>64.83</v>
       </c>
       <c r="H62" t="n">
-        <v>0.657</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6481</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>0.6491</v>
+        <v>64.83</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6429</v>
+        <v>64.20999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -2754,34 +2754,34 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6755</v>
+        <v>69.55</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6491</v>
+        <v>64.83</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6675</v>
+        <v>66.67</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6491</v>
+        <v>64.83</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6437999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6491</v>
+        <v>64.83</v>
       </c>
       <c r="H63" t="n">
-        <v>0.657</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>0.6481</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>0.6491</v>
+        <v>64.83</v>
       </c>
       <c r="K63" t="n">
-        <v>0.6429</v>
+        <v>64.20999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -2791,34 +2791,34 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.7402</v>
+        <v>78.91</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7087</v>
+        <v>70.31</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7402</v>
+        <v>73.44</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7087</v>
+        <v>70.31</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7008</v>
+        <v>69.53</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7087</v>
+        <v>70.31</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7637999999999999</v>
+        <v>76.56</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7087</v>
+        <v>70.31</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7087</v>
+        <v>70.31</v>
       </c>
       <c r="K64" t="n">
-        <v>0.7008</v>
+        <v>69.53</v>
       </c>
     </row>
     <row r="65">
@@ -2828,34 +2828,34 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.875</v>
+        <v>87.5</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8125</v>
+        <v>81.25</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8125</v>
+        <v>81.25</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8125</v>
+        <v>81.25</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7812</v>
+        <v>78.12</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8125</v>
+        <v>81.25</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8125</v>
+        <v>81.25</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8125</v>
+        <v>81.25</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8125</v>
+        <v>81.25</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7812</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="66">
@@ -2865,25 +2865,45 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
+        <v>0.59</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D66" t="n">
         <v>0.77</v>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F66" t="n">
         <v>1.11</v>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H66" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>0.71</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="J66" t="n">
         <v>0.89</v>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2892,25 +2912,45 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D67" t="n">
         <v>0.01</v>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F67" t="n">
         <v>-0</v>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H67" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>0.03</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="J67" t="n">
         <v>0</v>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2919,25 +2959,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.7204999999999999</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
+        <v>73.16</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D68" t="n">
-        <v>0.9854999999999999</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
+        <v>98.54000000000001</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F68" t="n">
-        <v>0.9982</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+        <v>99.81999999999999</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H68" t="n">
-        <v>0.8108</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>75.65000000000001</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="J68" t="n">
-        <v>0.9953</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>99.53</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2946,25 +3006,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12.4174</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
+        <v>1623.93</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D69" t="n">
-        <v>7.4316</v>
-      </c>
-      <c r="E69" t="inlineStr"/>
+        <v>742.8200000000001</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="F69" t="n">
-        <v>7.430499999999999</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+        <v>747.6</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H69" t="n">
-        <v>11.8898</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1474.59</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="J69" t="n">
-        <v>8.237299999999999</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>826.96</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
